--- a/Solucion/GDD.xlsx
+++ b/Solucion/GDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melyza\Desktop\GERENCIALES\Laboratorio\Practica 2\GerencialesPractica2\Solucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E771B13-3D3E-4AE3-B7DA-71E1A11C354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E607A-5BFD-4C6D-9170-9A61536DEEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="600" windowWidth="20730" windowHeight="11040" xr2:uid="{083B5517-8D73-4151-8362-116E33A05EBA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Universidad San Carlos de Guatemala
 Facultad de Ingeniería
@@ -50,20 +50,110 @@
     <t>Objetivos</t>
   </si>
   <si>
-    <t>Conciencia</t>
-  </si>
-  <si>
     <t>Consideración</t>
   </si>
   <si>
     <t>Conversión</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	100,000 personas alcanzadas por anuncios en redes sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	15,000 conversaciones iniciadas con posibles clientes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	500 cotizaciones de páginas web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	1,000 visitas a página de demostración.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	500 cotizaciones de apps móviles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	1,000 instalaciones y evaluaciones de la aplicación de muestra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	200 gerentes de empresas alcanzados con publicidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	500 cotizaciones de servicios de gestión de ERP.</t>
+  </si>
+  <si>
+    <t>Conocimiento</t>
+  </si>
+  <si>
+    <t>Pagina web de la empresa - Home</t>
+  </si>
+  <si>
+    <t>Número de clics en apartado “Páginas web” en página principal de la empresa.</t>
+  </si>
+  <si>
+    <t>Número de clics en apartado “Gestión de ERP” en página principal de la empresa.</t>
+  </si>
+  <si>
+    <t>Anuncios en redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	Número de correos electrónicos enviados a personas influyentes en sus respectivas empresas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	Número de nuevas entradas a la base de datos de contactos empresariales.</t>
+  </si>
+  <si>
+    <t>Página web de la empresa - Desarrollo Web</t>
+  </si>
+  <si>
+    <t>Página web de la empresa - Demostración</t>
+  </si>
+  <si>
+    <t>Cantidad de visitas a esta página</t>
+  </si>
+  <si>
+    <t>Cantidad de rebotes en esta página</t>
+  </si>
+  <si>
+    <t>Página web de la empresa - Apps móviles</t>
+  </si>
+  <si>
+    <t>Página web de la empresa - Desinstalación</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Número de anuncios realizados lanzados en redes sociales.</t>
+  </si>
+  <si>
+    <t>Número de reenvíos desde redes sociales hacia página web.</t>
+  </si>
+  <si>
+    <t>Número de clics en botón de “información por mensaje” que acompaña a una publicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de respuestas automáticas enviadas. </t>
+  </si>
+  <si>
+    <t>Número de clics en botón “Ver demo” en la página “Desarrollo web”</t>
+  </si>
+  <si>
+    <t>Número de clics en botón “Instalar demo” en la página “Apps móviles”</t>
+  </si>
+  <si>
+    <t>Cantidad de visitas a la página “Desinstalación”, accedida al desinstalar la aplicación de muestra.</t>
+  </si>
+  <si>
+    <t>Número de correos electrónicos de cotización enviados a direcciones proporcionadas por los posibles clientes.</t>
+  </si>
+  <si>
+    <t>Sistema de Medición de Objetivos - GDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +182,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,12 +220,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -130,8 +230,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -240,59 +364,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="9" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="9" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="9" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF002060"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thick">
         <color rgb="FFC00000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFC00000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -335,72 +412,424 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7321C04-CF09-4E80-A1A1-5A77FC65C74C}">
-  <dimension ref="B1:Q14"/>
+  <dimension ref="B1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,132 +1218,542 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+    <row r="11" spans="2:17" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B11" s="73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="17" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="21" t="s">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="24"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+    </row>
+    <row r="16" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="72"/>
+    </row>
+    <row r="17" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="32"/>
+    </row>
+    <row r="21" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="32"/>
+    </row>
+    <row r="22" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="32"/>
+    </row>
+    <row r="23" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="32"/>
+    </row>
+    <row r="24" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="32"/>
+    </row>
+    <row r="25" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="32"/>
+    </row>
+    <row r="26" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="32"/>
+    </row>
+    <row r="27" spans="2:17" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="32"/>
+    </row>
+    <row r="28" spans="2:17" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="37"/>
+    </row>
+    <row r="29" spans="2:17" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:17" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:17" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:17" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="2:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="2:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="2:5" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="N12:Q13"/>
+  <mergeCells count="62">
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:I14"/>
+    <mergeCell ref="J13:M14"/>
+    <mergeCell ref="N13:Q14"/>
     <mergeCell ref="B2:F9"/>
     <mergeCell ref="G2:H9"/>
   </mergeCells>
